--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7889,6 +7889,87 @@
         <v>345.6266666666667</v>
       </c>
       <c r="G290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>360.3888888888889</v>
+      </c>
+      <c r="C291" t="n">
+        <v>354.4585714285714</v>
+      </c>
+      <c r="D291" t="n">
+        <v>354.2385714285714</v>
+      </c>
+      <c r="E291" t="n">
+        <v>360.6185714285714</v>
+      </c>
+      <c r="F291" t="n">
+        <v>342.1933333333333</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>366.6177777777777</v>
+      </c>
+      <c r="C292" t="n">
+        <v>360.4085714285715</v>
+      </c>
+      <c r="D292" t="n">
+        <v>353.6885714285714</v>
+      </c>
+      <c r="E292" t="n">
+        <v>356.0685714285714</v>
+      </c>
+      <c r="F292" t="n">
+        <v>343.0366666666667</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>364.7988888888889</v>
+      </c>
+      <c r="C293" t="n">
+        <v>350.9271428571428</v>
+      </c>
+      <c r="D293" t="n">
+        <v>354.6871428571428</v>
+      </c>
+      <c r="E293" t="n">
+        <v>366.5171428571429</v>
+      </c>
+      <c r="F293" t="n">
+        <v>360.4833333333333</v>
+      </c>
+      <c r="G293" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7905,7 +7986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10953,6 +11034,36 @@
       </c>
       <c r="B304" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -11121,28 +11232,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2626901316924095</v>
+        <v>-0.2504589674202877</v>
       </c>
       <c r="J2" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01876795768615525</v>
+        <v>0.01747705333670357</v>
       </c>
       <c r="M2" t="n">
-        <v>10.46216490792481</v>
+        <v>10.39517456847902</v>
       </c>
       <c r="N2" t="n">
-        <v>175.2782754700852</v>
+        <v>173.611148578029</v>
       </c>
       <c r="O2" t="n">
-        <v>13.23927020156644</v>
+        <v>13.17615833913774</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4870954064468</v>
+        <v>365.3609663517281</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11198,28 +11309,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004951978000848849</v>
+        <v>0.006563867835679219</v>
       </c>
       <c r="J3" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>9.194620926966657e-06</v>
+        <v>1.653929151346212e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.847167822865913</v>
+        <v>8.780538953589593</v>
       </c>
       <c r="N3" t="n">
-        <v>128.5925962137499</v>
+        <v>127.2649879658042</v>
       </c>
       <c r="O3" t="n">
-        <v>11.33986755715206</v>
+        <v>11.28117848302225</v>
       </c>
       <c r="P3" t="n">
-        <v>354.4661710143594</v>
+        <v>354.4495276396183</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11275,28 +11386,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09470095065292908</v>
+        <v>0.1057160943607971</v>
       </c>
       <c r="J4" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K4" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003971272274284954</v>
+        <v>0.005055504205975225</v>
       </c>
       <c r="M4" t="n">
-        <v>7.688079997960099</v>
+        <v>7.647333754013284</v>
       </c>
       <c r="N4" t="n">
-        <v>106.9559830501307</v>
+        <v>105.9386489027202</v>
       </c>
       <c r="O4" t="n">
-        <v>10.34195257435126</v>
+        <v>10.29265023707307</v>
       </c>
       <c r="P4" t="n">
-        <v>347.2564159130175</v>
+        <v>347.1405534985628</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11352,28 +11463,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09164640476963896</v>
+        <v>0.102034546070385</v>
       </c>
       <c r="J5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004927713772383213</v>
+        <v>0.006241568304609868</v>
       </c>
       <c r="M5" t="n">
-        <v>7.196042893513829</v>
+        <v>7.163597251724168</v>
       </c>
       <c r="N5" t="n">
-        <v>79.4853944418473</v>
+        <v>78.91529302650987</v>
       </c>
       <c r="O5" t="n">
-        <v>8.915458173411354</v>
+        <v>8.883427999736918</v>
       </c>
       <c r="P5" t="n">
-        <v>354.8425584820768</v>
+        <v>354.7345896739715</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11429,28 +11540,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1083350109329594</v>
+        <v>0.1101873695313344</v>
       </c>
       <c r="J6" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K6" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005773219959806619</v>
+        <v>0.006070497618234527</v>
       </c>
       <c r="M6" t="n">
-        <v>7.720764761086273</v>
+        <v>7.720780501738646</v>
       </c>
       <c r="N6" t="n">
-        <v>93.42271152318175</v>
+        <v>93.16441619976207</v>
       </c>
       <c r="O6" t="n">
-        <v>9.665542484681433</v>
+        <v>9.652171579482104</v>
       </c>
       <c r="P6" t="n">
-        <v>345.1263190290517</v>
+        <v>345.1062211801352</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -11487,7 +11598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21461,6 +21572,117 @@
         </is>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-35.55551489202494,174.47426845129866</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-35.55602794465382,174.474912684452</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-35.556500613343545,174.47559883427593</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-35.55692020574156,174.47634240142332</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-35.557280883784756,174.47714258613536</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-35.5554716927744,174.47431234803784</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.555986645237944,174.47495456535924</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.55650445737046,174.4755950022809</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-35.55695667924636,174.47631944076275</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-35.55727355894893,174.47714507673962</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.555484307326985,174.474299529819</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.55605245656953,174.4748878273843</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.55649747821501,174.47560195959105</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-35.556872921873214,174.47637216734827</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-35.557122024587194,174.4771966016342</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -11077,7 +11077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11168,35 +11168,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11255,27 +11260,28 @@
       <c r="P2" t="n">
         <v>365.3609663517281</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.47172860921953 -35.55801427344416, 174.47824623175075 -35.55160006693314)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4717286092195</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.55801427344416</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4782462317507</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.55160006693314</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4749874204851</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.55480717018865</v>
       </c>
     </row>
@@ -11332,27 +11338,28 @@
       <c r="P3" t="n">
         <v>354.4495276396183</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.47241764152008 -35.55848824446153, 174.47892739657712 -35.55206872004707)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4724176415201</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.55848824446153</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4789273965771</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.55206872004707</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4756725190486</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.55527848225429</v>
       </c>
     </row>
@@ -11409,27 +11416,28 @@
       <c r="P4" t="n">
         <v>347.1405534985628</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.47313068539398 -35.5589764123581, 174.47957417302484 -35.552512533868544)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.473130685394</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.5589764123581</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4795741730248</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.55251253386854</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4763524292094</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.55574447311332</v>
       </c>
     </row>
@@ -11486,27 +11494,28 @@
       <c r="P5" t="n">
         <v>354.7345896739715</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.47452254908956 -35.559810967393176, 174.47918807880984 -35.55239950359189)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4745225490896</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.55981096739318</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4791880788098</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.55239950359189</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4768553139497</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.55610523549254</v>
       </c>
     </row>
@@ -11563,27 +11572,28 @@
       <c r="P6" t="n">
         <v>345.1062211801352</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.4761319558682 -35.560253025957216, 174.4788617941953 -35.55222440114406)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4761319558682</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.56025302595722</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4788617941953</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.55222440114406</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4774968750318</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.55623871355064</v>
       </c>
     </row>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7972,6 +7972,60 @@
       <c r="G293" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>357.8355555555555</v>
+      </c>
+      <c r="C294" t="n">
+        <v>354.6314285714286</v>
+      </c>
+      <c r="D294" t="n">
+        <v>351.2914285714286</v>
+      </c>
+      <c r="E294" t="n">
+        <v>369.0614285714286</v>
+      </c>
+      <c r="F294" t="n">
+        <v>351.8333333333333</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>368.9422222222223</v>
+      </c>
+      <c r="C295" t="n">
+        <v>363.1271428571428</v>
+      </c>
+      <c r="D295" t="n">
+        <v>356.5471428571428</v>
+      </c>
+      <c r="E295" t="n">
+        <v>350.5671428571428</v>
+      </c>
+      <c r="F295" t="n">
+        <v>352.4633333333333</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7986,7 +8040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11064,6 +11118,26 @@
       </c>
       <c r="B307" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -11237,28 +11311,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2504589674202877</v>
+        <v>-0.2434717985643159</v>
       </c>
       <c r="J2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01747705333670357</v>
+        <v>0.01676449567845784</v>
       </c>
       <c r="M2" t="n">
-        <v>10.39517456847902</v>
+        <v>10.35539356573683</v>
       </c>
       <c r="N2" t="n">
-        <v>173.611148578029</v>
+        <v>172.6588361701156</v>
       </c>
       <c r="O2" t="n">
-        <v>13.17615833913774</v>
+        <v>13.13997093490376</v>
       </c>
       <c r="P2" t="n">
-        <v>365.3609663517281</v>
+        <v>365.2883985410435</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11315,28 +11389,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006563867835679219</v>
+        <v>0.0133985426543456</v>
       </c>
       <c r="J3" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>1.653929151346212e-05</v>
+        <v>6.990405019868806e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.780538953589593</v>
+        <v>8.745050106583532</v>
       </c>
       <c r="N3" t="n">
-        <v>127.2649879658042</v>
+        <v>126.5530150016324</v>
       </c>
       <c r="O3" t="n">
-        <v>11.28117848302225</v>
+        <v>11.24957843661852</v>
       </c>
       <c r="P3" t="n">
-        <v>354.4495276396183</v>
+        <v>354.3779993947176</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11393,28 +11467,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1057160943607971</v>
+        <v>0.112257411299217</v>
       </c>
       <c r="J4" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005055504205975225</v>
+        <v>0.005779986658783764</v>
       </c>
       <c r="M4" t="n">
-        <v>7.647333754013284</v>
+        <v>7.616662016646765</v>
       </c>
       <c r="N4" t="n">
-        <v>105.9386489027202</v>
+        <v>105.2973058900297</v>
       </c>
       <c r="O4" t="n">
-        <v>10.29265023707307</v>
+        <v>10.261447553344</v>
       </c>
       <c r="P4" t="n">
-        <v>347.1405534985628</v>
+        <v>347.0712411583398</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11471,28 +11545,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102034546070385</v>
+        <v>0.106353417982569</v>
       </c>
       <c r="J5" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006241568304609868</v>
+        <v>0.006838517407324995</v>
       </c>
       <c r="M5" t="n">
-        <v>7.163597251724168</v>
+        <v>7.180034341751244</v>
       </c>
       <c r="N5" t="n">
-        <v>78.91529302650987</v>
+        <v>79.01742371348948</v>
       </c>
       <c r="O5" t="n">
-        <v>8.883427999736918</v>
+        <v>8.889174523738944</v>
       </c>
       <c r="P5" t="n">
-        <v>354.7345896739715</v>
+        <v>354.6895434759853</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11549,28 +11623,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1101873695313344</v>
+        <v>0.1172047383665675</v>
       </c>
       <c r="J6" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006070497618234527</v>
+        <v>0.00696906031470923</v>
       </c>
       <c r="M6" t="n">
-        <v>7.720780501738646</v>
+        <v>7.693741738820914</v>
       </c>
       <c r="N6" t="n">
-        <v>93.16441619976207</v>
+        <v>92.57642554452326</v>
       </c>
       <c r="O6" t="n">
-        <v>9.652171579482104</v>
+        <v>9.621664385360948</v>
       </c>
       <c r="P6" t="n">
-        <v>345.1062211801352</v>
+        <v>345.0311503461685</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11608,7 +11682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21693,6 +21767,80 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.55553260016857,174.47425045722403</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.55602674483906,174.47491390116082</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.5565212113358,174.47557830075027</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-35.55685252648008,174.47638500655114</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-35.5571971548284,174.47717105578386</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.55545557203698,174.4743287290423</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.55596777541619,174.4749737008472</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-35.556484478413715,174.4756149186978</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-35.5570007795445,174.4762916788819</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-35.55719168291506,174.4771729163502</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8026,6 +8026,114 @@
       <c r="G295" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>358.8588888888889</v>
+      </c>
+      <c r="C296" t="n">
+        <v>357.7157142857143</v>
+      </c>
+      <c r="D296" t="n">
+        <v>351.2257142857143</v>
+      </c>
+      <c r="E296" t="n">
+        <v>365.4457142857143</v>
+      </c>
+      <c r="F296" t="n">
+        <v>356.1533333333333</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>356.0088888888889</v>
+      </c>
+      <c r="C297" t="n">
+        <v>353.1671428571428</v>
+      </c>
+      <c r="D297" t="n">
+        <v>339.4871428571428</v>
+      </c>
+      <c r="E297" t="n">
+        <v>358.3871428571428</v>
+      </c>
+      <c r="F297" t="n">
+        <v>346.5833333333333</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>369.3755555555555</v>
+      </c>
+      <c r="C298" t="n">
+        <v>357.2714285714285</v>
+      </c>
+      <c r="D298" t="n">
+        <v>347.7414285714286</v>
+      </c>
+      <c r="E298" t="n">
+        <v>372.7814285714285</v>
+      </c>
+      <c r="F298" t="n">
+        <v>359.6533333333333</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>335.5455555555556</v>
+      </c>
+      <c r="C299" t="n">
+        <v>349.5214285714285</v>
+      </c>
+      <c r="D299" t="n">
+        <v>340.1214285714286</v>
+      </c>
+      <c r="E299" t="n">
+        <v>356.5414285714286</v>
+      </c>
+      <c r="F299" t="n">
+        <v>349.3533333333333</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11138,6 +11246,46 @@
       </c>
       <c r="B309" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -11311,28 +11459,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2434717985643159</v>
+        <v>-0.2561113407675605</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01676449567845784</v>
+        <v>0.0188430774444579</v>
       </c>
       <c r="M2" t="n">
-        <v>10.35539356573683</v>
+        <v>10.34188122142982</v>
       </c>
       <c r="N2" t="n">
-        <v>172.6588361701156</v>
+        <v>172.5609512101013</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13997093490376</v>
+        <v>13.13624570454212</v>
       </c>
       <c r="P2" t="n">
-        <v>365.2883985410435</v>
+        <v>365.4208512087675</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11389,28 +11537,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0133985426543456</v>
+        <v>0.01244163900590169</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>6.990405019868806e-05</v>
+        <v>6.218597709761742e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.745050106583532</v>
+        <v>8.658106286093334</v>
       </c>
       <c r="N3" t="n">
-        <v>126.5530150016324</v>
+        <v>124.7855842845346</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24957843661852</v>
+        <v>11.17074680961549</v>
       </c>
       <c r="P3" t="n">
-        <v>354.3779993947176</v>
+        <v>354.3881724052003</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11467,28 +11615,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.112257411299217</v>
+        <v>0.09577074655714003</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005779986658783764</v>
+        <v>0.00431783365150884</v>
       </c>
       <c r="M4" t="n">
-        <v>7.616662016646765</v>
+        <v>7.596776296968491</v>
       </c>
       <c r="N4" t="n">
-        <v>105.2973058900297</v>
+        <v>104.4811975002878</v>
       </c>
       <c r="O4" t="n">
-        <v>10.261447553344</v>
+        <v>10.22160444843606</v>
       </c>
       <c r="P4" t="n">
-        <v>347.0712411583398</v>
+        <v>347.2473565489346</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11545,28 +11693,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.106353417982569</v>
+        <v>0.1261468503410323</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006838517407324995</v>
+        <v>0.009797919310041259</v>
       </c>
       <c r="M5" t="n">
-        <v>7.180034341751244</v>
+        <v>7.16235359410824</v>
       </c>
       <c r="N5" t="n">
-        <v>79.01742371348948</v>
+        <v>78.93458509557396</v>
       </c>
       <c r="O5" t="n">
-        <v>8.889174523738944</v>
+        <v>8.884513779356412</v>
       </c>
       <c r="P5" t="n">
-        <v>354.6895434759853</v>
+        <v>354.4812631348132</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11623,28 +11771,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1172047383665675</v>
+        <v>0.1329243246873127</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K6" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00696906031470923</v>
+        <v>0.009170762226783924</v>
       </c>
       <c r="M6" t="n">
-        <v>7.693741738820914</v>
+        <v>7.661300435731041</v>
       </c>
       <c r="N6" t="n">
-        <v>92.57642554452326</v>
+        <v>91.92445840942671</v>
       </c>
       <c r="O6" t="n">
-        <v>9.621664385360948</v>
+        <v>9.587724360317557</v>
       </c>
       <c r="P6" t="n">
-        <v>345.0311503461685</v>
+        <v>344.8617572621795</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11682,7 +11830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21841,6 +21989,154 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.55552550304081,174.4742576689494</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.556005336571936,174.47493561086029</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.55652167062206,174.47557784290132</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-35.55688151061223,174.47636676060736</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-35.557159633136344,174.4771838139483</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.55554526865618,174.4742375841736</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.556036908558845,174.47490359432865</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.556603713100905,174.47549605705748</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-35.556938093219145,174.47633114097002</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-35.55724275410522,174.47715555105486</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.555452566736754,174.47433178286173</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.55600842039387,174.47493248361852</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.55654602277626,174.47555356694525</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-35.55682270637462,174.47640377873748</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-35.55712923361635,174.47719415041584</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.55568718799313,174.47409337284623</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.55606221373851,174.4748779328192</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.55659927999277,174.4755004763041</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.556952888750445,174.47632182694224</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.557218695058445,174.4771637316473</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8134,6 +8134,33 @@
       <c r="G299" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>371.1822222222222</v>
+      </c>
+      <c r="C300" t="n">
+        <v>349.1242857142857</v>
+      </c>
+      <c r="D300" t="n">
+        <v>343.3242857142857</v>
+      </c>
+      <c r="E300" t="n">
+        <v>358.5642857142857</v>
+      </c>
+      <c r="F300" t="n">
+        <v>350.5233333333333</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11286,6 +11313,16 @@
       </c>
       <c r="B313" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -11459,28 +11496,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2561113407675605</v>
+        <v>-0.2466928461444305</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0188430774444579</v>
+        <v>0.01758562042237521</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34188122142982</v>
+        <v>10.34665962660627</v>
       </c>
       <c r="N2" t="n">
-        <v>172.5609512101013</v>
+        <v>172.4778621512864</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13624570454212</v>
+        <v>13.13308273602532</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4208512087675</v>
+        <v>365.3220762087574</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11537,28 +11574,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01244163900590169</v>
+        <v>0.008133646222018988</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>6.218597709761742e-05</v>
+        <v>2.676386930555719e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.658106286093334</v>
+        <v>8.646243755598508</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7855842845346</v>
+        <v>124.4269069666476</v>
       </c>
       <c r="O3" t="n">
-        <v>11.17074680961549</v>
+        <v>11.15468094418875</v>
       </c>
       <c r="P3" t="n">
-        <v>354.3881724052003</v>
+        <v>354.4337045788453</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11615,28 +11652,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09577074655714003</v>
+        <v>0.09084826598204715</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00431783365150884</v>
+        <v>0.003911709007559994</v>
       </c>
       <c r="M4" t="n">
-        <v>7.596776296968491</v>
+        <v>7.593550697324752</v>
       </c>
       <c r="N4" t="n">
-        <v>104.4811975002878</v>
+        <v>104.2370845420935</v>
       </c>
       <c r="O4" t="n">
-        <v>10.22160444843606</v>
+        <v>10.2096564360459</v>
       </c>
       <c r="P4" t="n">
-        <v>347.2473565489346</v>
+        <v>347.300040078318</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11693,28 +11730,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1261468503410323</v>
+        <v>0.1268514565642139</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009797919310041259</v>
+        <v>0.009992683236293876</v>
       </c>
       <c r="M5" t="n">
-        <v>7.16235359410824</v>
+        <v>7.137132307277636</v>
       </c>
       <c r="N5" t="n">
-        <v>78.93458509557396</v>
+        <v>78.62413070603969</v>
       </c>
       <c r="O5" t="n">
-        <v>8.884513779356412</v>
+        <v>8.867024907263975</v>
       </c>
       <c r="P5" t="n">
-        <v>354.4812631348132</v>
+        <v>354.4738294667995</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11771,28 +11808,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1329243246873127</v>
+        <v>0.1347151087885869</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009170762226783924</v>
+        <v>0.009491234875973809</v>
       </c>
       <c r="M6" t="n">
-        <v>7.661300435731041</v>
+        <v>7.64049923111279</v>
       </c>
       <c r="N6" t="n">
-        <v>91.92445840942671</v>
+        <v>91.59263529106003</v>
       </c>
       <c r="O6" t="n">
-        <v>9.587724360317557</v>
+        <v>9.570404134155465</v>
       </c>
       <c r="P6" t="n">
-        <v>344.8617572621795</v>
+        <v>344.842410237955</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11830,7 +11867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22137,6 +22174,43 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.55544003694578,174.47434451493717</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.55606497033693,174.474875137403</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.55657689479123,174.47552279150148</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.55693667321456,174.47633203488584</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.55720853293384,174.4771671869864</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8161,6 +8161,33 @@
       <c r="G300" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>359.8522222222222</v>
+      </c>
+      <c r="C301" t="n">
+        <v>354.6328571428572</v>
+      </c>
+      <c r="D301" t="n">
+        <v>345.0528571428572</v>
+      </c>
+      <c r="E301" t="n">
+        <v>362.2728571428572</v>
+      </c>
+      <c r="F301" t="n">
+        <v>349.8733333333333</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11323,6 +11350,16 @@
       </c>
       <c r="B314" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -11496,28 +11533,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2466928461444305</v>
+        <v>-0.2460104086430304</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01758562042237521</v>
+        <v>0.01762676404922348</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34665962660627</v>
+        <v>10.31089172851729</v>
       </c>
       <c r="N2" t="n">
-        <v>172.4778621512864</v>
+        <v>171.8324267546299</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13308273602532</v>
+        <v>13.10848682169799</v>
       </c>
       <c r="P2" t="n">
-        <v>365.3220762087574</v>
+        <v>365.3148836135946</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11574,28 +11611,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008133646222018988</v>
+        <v>0.008125393408066952</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L3" t="n">
-        <v>2.676386930555719e-05</v>
+        <v>2.692300647766377e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.646243755598508</v>
+        <v>8.61340834983007</v>
       </c>
       <c r="N3" t="n">
-        <v>124.4269069666476</v>
+        <v>123.9538012873625</v>
       </c>
       <c r="O3" t="n">
-        <v>11.15468094418875</v>
+        <v>11.13345414897652</v>
       </c>
       <c r="P3" t="n">
-        <v>354.4337045788453</v>
+        <v>354.433792239443</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11652,28 +11689,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09084826598204715</v>
+        <v>0.08731087342995932</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003911709007559994</v>
+        <v>0.003639772558024834</v>
       </c>
       <c r="M4" t="n">
-        <v>7.593550697324752</v>
+        <v>7.582957564885673</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2370845420935</v>
+        <v>103.9211668232052</v>
       </c>
       <c r="O4" t="n">
-        <v>10.2096564360459</v>
+        <v>10.19417317996929</v>
       </c>
       <c r="P4" t="n">
-        <v>347.300040078318</v>
+        <v>347.3380873765008</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11730,28 +11767,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1268514565642139</v>
+        <v>0.1306300287724158</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009992683236293876</v>
+        <v>0.01067242042535554</v>
       </c>
       <c r="M5" t="n">
-        <v>7.137132307277636</v>
+        <v>7.125837463447798</v>
       </c>
       <c r="N5" t="n">
-        <v>78.62413070603969</v>
+        <v>78.39330535074231</v>
       </c>
       <c r="O5" t="n">
-        <v>8.867024907263975</v>
+        <v>8.853999398618813</v>
       </c>
       <c r="P5" t="n">
-        <v>354.4738294667995</v>
+        <v>354.4337784050955</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11808,28 +11845,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1347151087885869</v>
+        <v>0.1359532607955814</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009491234875973809</v>
+        <v>0.009742285935701034</v>
       </c>
       <c r="M6" t="n">
-        <v>7.64049923111279</v>
+        <v>7.617197110194453</v>
       </c>
       <c r="N6" t="n">
-        <v>91.59263529106003</v>
+        <v>91.25345974197323</v>
       </c>
       <c r="O6" t="n">
-        <v>9.570404134155465</v>
+        <v>9.552667676726394</v>
       </c>
       <c r="P6" t="n">
-        <v>344.842410237955</v>
+        <v>344.8289700739104</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11867,7 +11904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22211,6 +22248,43 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.55551861397178,174.47426466925492</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.556026734923236,174.47491391121628</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.55656481357021,174.47553483493473</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.556906944730024,174.47635074943867</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.557214178558624,174.47716526735366</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8188,6 +8188,60 @@
       <c r="G301" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>361.7611111111111</v>
+      </c>
+      <c r="C302" t="n">
+        <v>346.9657142857143</v>
+      </c>
+      <c r="D302" t="n">
+        <v>340.3657142857143</v>
+      </c>
+      <c r="E302" t="n">
+        <v>350.2157142857143</v>
+      </c>
+      <c r="F302" t="n">
+        <v>337.7366666666667</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>352.4522222222222</v>
+      </c>
+      <c r="C303" t="n">
+        <v>344.4071428571428</v>
+      </c>
+      <c r="D303" t="n">
+        <v>334.1871428571428</v>
+      </c>
+      <c r="E303" t="n">
+        <v>350.0371428571428</v>
+      </c>
+      <c r="F303" t="n">
+        <v>339.8033333333333</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11360,6 +11414,26 @@
       </c>
       <c r="B315" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -11533,28 +11607,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2460104086430304</v>
+        <v>-0.2487844347247108</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01762676404922348</v>
+        <v>0.01827919667455113</v>
       </c>
       <c r="M2" t="n">
-        <v>10.31089172851729</v>
+        <v>10.26960258266608</v>
       </c>
       <c r="N2" t="n">
-        <v>171.8324267546299</v>
+        <v>170.7364600955851</v>
       </c>
       <c r="O2" t="n">
-        <v>13.10848682169799</v>
+        <v>13.06661624505691</v>
       </c>
       <c r="P2" t="n">
-        <v>365.3148836135946</v>
+        <v>365.3442296548964</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11611,28 +11685,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008125393408066952</v>
+        <v>-0.00543844741622695</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>2.692300647766377e-05</v>
+        <v>1.219244144012865e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.61340834983007</v>
+        <v>8.61762543529828</v>
       </c>
       <c r="N3" t="n">
-        <v>123.9538012873625</v>
+        <v>123.6222629328329</v>
       </c>
       <c r="O3" t="n">
-        <v>11.13345414897652</v>
+        <v>11.11855489408731</v>
       </c>
       <c r="P3" t="n">
-        <v>354.433792239443</v>
+        <v>354.5782320959314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11689,28 +11763,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08731087342995932</v>
+        <v>0.0686555701917652</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003639772558024834</v>
+        <v>0.002262914463849186</v>
       </c>
       <c r="M4" t="n">
-        <v>7.582957564885673</v>
+        <v>7.620502383075108</v>
       </c>
       <c r="N4" t="n">
-        <v>103.9211668232052</v>
+        <v>104.3266276616685</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19417317996929</v>
+        <v>10.2140407117687</v>
       </c>
       <c r="P4" t="n">
-        <v>347.3380873765008</v>
+        <v>347.5392573873065</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11767,28 +11841,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1306300287724158</v>
+        <v>0.1180527835121899</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01067242042535554</v>
+        <v>0.008834144821094569</v>
       </c>
       <c r="M5" t="n">
-        <v>7.125837463447798</v>
+        <v>7.132061433121732</v>
       </c>
       <c r="N5" t="n">
-        <v>78.39330535074231</v>
+        <v>78.23017727996437</v>
       </c>
       <c r="O5" t="n">
-        <v>8.853999398618813</v>
+        <v>8.844782489126816</v>
       </c>
       <c r="P5" t="n">
-        <v>354.4337784050955</v>
+        <v>354.5674018234425</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11845,28 +11919,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1359532607955814</v>
+        <v>0.1209857826688883</v>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009742285935701034</v>
+        <v>0.007797151755875587</v>
       </c>
       <c r="M6" t="n">
-        <v>7.617197110194453</v>
+        <v>7.632369094649464</v>
       </c>
       <c r="N6" t="n">
-        <v>91.25345974197323</v>
+        <v>91.24840956440572</v>
       </c>
       <c r="O6" t="n">
-        <v>9.552667676726394</v>
+        <v>9.55240333970492</v>
       </c>
       <c r="P6" t="n">
-        <v>344.8289700739104</v>
+        <v>344.9918166837342</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11904,7 +11978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22285,6 +22359,80 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.55550537524521,174.47427812174024</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.55607995314233,174.4748599436088</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.55659757264702,174.47550217831113</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.55700359664981,174.47628990546548</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.55731959250134,174.4771294243182</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.555569935215004,174.47421251929933</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.556097712375234,174.47484193427962</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.556640755507495,174.47545913045082</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.557005028105756,174.4762890043392</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.55730164231132,174.47713552778015</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8242,6 +8242,33 @@
       <c r="G303" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>338.71</v>
+      </c>
+      <c r="C304" t="n">
+        <v>342.7085714285714</v>
+      </c>
+      <c r="D304" t="n">
+        <v>336.8485714285715</v>
+      </c>
+      <c r="E304" t="n">
+        <v>356.7185714285715</v>
+      </c>
+      <c r="F304" t="n">
+        <v>329.48</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11434,6 +11461,16 @@
       </c>
       <c r="B317" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -11607,28 +11644,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2487844347247108</v>
+        <v>-0.2638903030858693</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01827919667455113</v>
+        <v>0.02050111758085493</v>
       </c>
       <c r="M2" t="n">
-        <v>10.26960258266608</v>
+        <v>10.31143834921011</v>
       </c>
       <c r="N2" t="n">
-        <v>170.7364600955851</v>
+        <v>171.5969789096606</v>
       </c>
       <c r="O2" t="n">
-        <v>13.06661624505691</v>
+        <v>13.09950300239137</v>
       </c>
       <c r="P2" t="n">
-        <v>365.3442296548964</v>
+        <v>365.5047012464433</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11685,28 +11722,28 @@
         <v>0.0406</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00543844741622695</v>
+        <v>-0.01431771894045748</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L3" t="n">
-        <v>1.219244144012865e-05</v>
+        <v>8.481497494727819e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.61762543529828</v>
+        <v>8.630902375172077</v>
       </c>
       <c r="N3" t="n">
-        <v>123.6222629328329</v>
+        <v>123.6686634783959</v>
       </c>
       <c r="O3" t="n">
-        <v>11.11855489408731</v>
+        <v>11.12064132495945</v>
       </c>
       <c r="P3" t="n">
-        <v>354.5782320959314</v>
+        <v>354.6732951988184</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11763,28 +11800,28 @@
         <v>0.0384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0686555701917652</v>
+        <v>0.05921014131410393</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002262914463849186</v>
+        <v>0.00168785445083719</v>
       </c>
       <c r="M4" t="n">
-        <v>7.620502383075108</v>
+        <v>7.639473330889683</v>
       </c>
       <c r="N4" t="n">
-        <v>104.3266276616685</v>
+        <v>104.5119983892764</v>
       </c>
       <c r="O4" t="n">
-        <v>10.2140407117687</v>
+        <v>10.22311099368858</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5392573873065</v>
+        <v>347.641652205291</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11841,28 +11878,28 @@
         <v>0.0356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1180527835121899</v>
+        <v>0.1173045037261666</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008834144821094569</v>
+        <v>0.008798407209481329</v>
       </c>
       <c r="M5" t="n">
-        <v>7.132061433121732</v>
+        <v>7.107890096032946</v>
       </c>
       <c r="N5" t="n">
-        <v>78.23017727996437</v>
+        <v>77.9278233820188</v>
       </c>
       <c r="O5" t="n">
-        <v>8.844782489126816</v>
+        <v>8.827673724261608</v>
       </c>
       <c r="P5" t="n">
-        <v>354.5674018234425</v>
+        <v>354.575392575723</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11919,28 +11956,28 @@
         <v>0.0313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1209857826688883</v>
+        <v>0.1064029673558055</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007797151755875587</v>
+        <v>0.006005175932875639</v>
       </c>
       <c r="M6" t="n">
-        <v>7.632369094649464</v>
+        <v>7.674495454141849</v>
       </c>
       <c r="N6" t="n">
-        <v>91.24840956440572</v>
+        <v>92.19824250556721</v>
       </c>
       <c r="O6" t="n">
-        <v>9.55240333970492</v>
+        <v>9.601991590579905</v>
       </c>
       <c r="P6" t="n">
-        <v>344.9918166837342</v>
+        <v>345.1513121157097</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11978,7 +12015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22433,6 +22470,43 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.55566524163517,174.47411567368073</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.55610950228335,174.47482997833313</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.55662215442974,174.4754776733845</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.55695146874593,174.47632272085838</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.5573913064027,174.4771050399775</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -11638,10 +11638,10 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0399</v>
+        <v>0.0386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0509</v>
+        <v>0.0485</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2638645592426592</v>
@@ -11713,13 +11713,13 @@
         <v>0.2508862075391765</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0343</v>
+        <v>0.0421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0406</v>
+        <v>0.0477</v>
       </c>
       <c r="I3" t="n">
         <v>-0.01432813037309249</v>
@@ -11794,10 +11794,10 @@
         <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0343</v>
+        <v>0.0346</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0384</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
         <v>0.05921259087474612</v>
@@ -11869,13 +11869,13 @@
         <v>0.7526549175901747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0341</v>
+        <v>0.0378</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0356</v>
+        <v>0.0407</v>
       </c>
       <c r="I5" t="n">
         <v>0.1172912553840962</v>
@@ -11947,13 +11947,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0299</v>
+        <v>0.0349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0313</v>
+        <v>0.0404</v>
       </c>
       <c r="I6" t="n">
         <v>0.1063663956644899</v>

--- a/data/nzd0089/nzd0089.xlsx
+++ b/data/nzd0089/nzd0089.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8705,6 +8705,33 @@
       <c r="G306" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="C307" t="n">
+        <v>352.52</v>
+      </c>
+      <c r="D307" t="n">
+        <v>344.95</v>
+      </c>
+      <c r="E307" t="n">
+        <v>355.44</v>
+      </c>
+      <c r="F307" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8719,7 +8746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11927,6 +11954,16 @@
       </c>
       <c r="B320" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -12100,28 +12137,28 @@
         <v>0.0485</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2306933315911072</v>
+        <v>-0.2314195196660007</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04194530348833436</v>
+        <v>0.04249280971866543</v>
       </c>
       <c r="M2" t="n">
-        <v>6.094335655537294</v>
+        <v>6.077842234536297</v>
       </c>
       <c r="N2" t="n">
-        <v>60.81135793664406</v>
+        <v>60.61623653899088</v>
       </c>
       <c r="O2" t="n">
-        <v>7.798163754156747</v>
+        <v>7.785642975309803</v>
       </c>
       <c r="P2" t="n">
-        <v>364.9254191808605</v>
+        <v>364.9332693918971</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12178,28 +12215,28 @@
         <v>0.0477</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01450717572846099</v>
+        <v>0.01369838258537098</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003174128596123982</v>
+        <v>0.0002850551752717756</v>
       </c>
       <c r="M3" t="n">
-        <v>4.164295960424944</v>
+        <v>4.153934237149866</v>
       </c>
       <c r="N3" t="n">
-        <v>33.15973182332451</v>
+        <v>33.05584286152255</v>
       </c>
       <c r="O3" t="n">
-        <v>5.758448734105785</v>
+        <v>5.74942108925086</v>
       </c>
       <c r="P3" t="n">
-        <v>353.3144844039854</v>
+        <v>353.3232275892259</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12256,28 +12293,28 @@
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05254473653273876</v>
+        <v>0.04962559850730148</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005737120408555341</v>
+        <v>0.00514542974297727</v>
       </c>
       <c r="M4" t="n">
-        <v>3.736092127932851</v>
+        <v>3.735750161454505</v>
       </c>
       <c r="N4" t="n">
-        <v>23.93720033449509</v>
+        <v>23.91728396711844</v>
       </c>
       <c r="O4" t="n">
-        <v>4.89256582321537</v>
+        <v>4.890530029262518</v>
       </c>
       <c r="P4" t="n">
-        <v>347.8214960360892</v>
+        <v>347.8530523922688</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12328,34 +12365,34 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0378</v>
+        <v>0.0379</v>
       </c>
       <c r="H5" t="n">
         <v>0.0407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1393085325877378</v>
+        <v>0.1381173924976581</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K5" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05500248543814612</v>
+        <v>0.05446213722688142</v>
       </c>
       <c r="M5" t="n">
-        <v>3.236310173390983</v>
+        <v>3.230756006669433</v>
       </c>
       <c r="N5" t="n">
-        <v>16.68059135256425</v>
+        <v>16.6357882429308</v>
       </c>
       <c r="O5" t="n">
-        <v>4.084187967339927</v>
+        <v>4.078699332254193</v>
       </c>
       <c r="P5" t="n">
-        <v>353.5336220118504</v>
+        <v>353.5464984296884</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12412,28 +12449,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1457603441119983</v>
+        <v>0.1432093295432611</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06155336478239148</v>
+        <v>0.05980074611553599</v>
       </c>
       <c r="M6" t="n">
-        <v>3.26370584875185</v>
+        <v>3.264916061010473</v>
       </c>
       <c r="N6" t="n">
-        <v>16.2048199197934</v>
+        <v>16.19639353604892</v>
       </c>
       <c r="O6" t="n">
-        <v>4.025521074319871</v>
+        <v>4.024474317976066</v>
       </c>
       <c r="P6" t="n">
-        <v>343.4422557223635</v>
+        <v>343.4698326041858</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12471,7 +12508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23801,6 +23838,43 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.55553256934499,174.47425048854532</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.556041400426935,174.47489903921078</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.55656553245281,174.4755341183008</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.55696171797198,174.47631626880175</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.557269187208945,174.47714656322657</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
